--- a/数据整理/stocks/其他/PDD-拼多多.xlsx
+++ b/数据整理/stocks/其他/PDD-拼多多.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1847,4 +1848,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>197.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.2832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1244</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006308</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0344</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0344</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9938</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006309</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002230</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏大中华企业精选灵活配置混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PDD-拼多多.xlsx
+++ b/数据整理/stocks/其他/PDD-拼多多.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>267.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.8795</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6176</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PDD-拼多多.xlsx
+++ b/数据整理/stocks/其他/PDD-拼多多.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/PDD-拼多多.xlsx
+++ b/数据整理/stocks/其他/PDD-拼多多.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.88</v>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.8939</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2246</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>19.08</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2736,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>13.28</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="5">
@@ -2619,13 +2752,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.17</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PDD-拼多多.xlsx
+++ b/数据整理/stocks/其他/PDD-拼多多.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2673,7 +2674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,17 +2685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2704,14 +2725,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.12</v>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50 QDII-ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>350.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9276</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2720,14 +2763,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.88</v>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>110.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8979</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2736,14 +2801,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.08</v>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2752,14 +2839,136 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>13.28</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="6">
@@ -2768,13 +2977,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.17</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/PDD-拼多多.xlsx
+++ b/数据整理/stocks/其他/PDD-拼多多.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>14.72</v>
+        <v>44.91</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>15.12</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>18.88</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>19.08</v>
+        <v>18.88</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
-        <v>13.28</v>
+        <v>19.08</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.28</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.17</v>
       </c>
     </row>
@@ -583,6 +600,1354 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达中证海外中国互联网50（QDII）ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>364.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.2755</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.8922</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证海外中国互联网30（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3890</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011420</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币 A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4693</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3252</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发全球精选股票（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3252</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2922</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2922</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000988</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-人民币（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000989</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现汇（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000990</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实全球互联网股票-美元现钞（QDII）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证海外中国互联网30ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9923</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6830</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000041</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6823</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6819</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015203</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3974</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001668</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3961</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100055</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国全球科技互联网股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3528</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011422</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）人民币 C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3383</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012584</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1984</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006792</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）美元现汇</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160644</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华香港美国互联网股票（LOF）人民币</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513220</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商中证全球中国互联网ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519601</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通中国海外精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011421</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发全球科技三个月定期开放混合（QDII）美元 A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012585</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方中国新兴经济9个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519602</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通大中华精选混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>016988</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>015202</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富全球移动互联灵活配置混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -922,7 +2287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1168,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1604,7 +2969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2230,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
